--- a/biology/Botanique/Anthracnose/Anthracnose.xlsx
+++ b/biology/Botanique/Anthracnose/Anthracnose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthracnose  est le nom générique d'une série de maladies cryptogamiques causées par diverses espèces de champignons ascomycètes phytopathogènes appartenant à différents genres (Apiognomonia, Colletotrichum, Discula, Gloeosporium, Glomerella, Gnomonia, Pseudopeziza, etc.) affectant de nombreuses espèces de plantes cultivées : des arbres et arbustes fruitiers, cerisier, chêne, framboisier,  groseillier, vigne, manguier, avocatier, des plantes potagères : maïs, fraisier, haricot, pois, tomate… ainsi que des arbres et arbustes d'ornement (rosier mais attention à ne pas confondre avec la maladie des taches noires).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme «  anthracnose » est apparu en français en 1879 pour désigner une maladie de la vigne, appelée aussi « charbon » ou « rouille noire ». Le mot est composé de deux radicaux grecs, anthrax (ανθραξ) (sens médical : agglomération de plusieurs furoncles à tendance nécrosante) et nosos (νοσος) « maladie, fléau »[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme «  anthracnose » est apparu en français en 1879 pour désigner une maladie de la vigne, appelée aussi « charbon » ou « rouille noire ». Le mot est composé de deux radicaux grecs, anthrax (ανθραξ) (sens médical : agglomération de plusieurs furoncles à tendance nécrosante) et nosos (νοσος) « maladie, fléau ».  
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les fruits apparaissent des taches rondes et brunes de dessèchement qui peuvent être auréolées de rouge-mauve. L'anthracnose qui affaiblit la plante en diminuant son capital feuillu, est nuisible à la production fruitière, mais ne menace pas directement la vie de la plante. L'affaiblissement peut permettre l'infestation par des maladies plus graves.
 L'anthracnose est une maladie qui touche la production de mangue en Côte d'Ivoire. En Côte d'Ivoire, la principale zone de production de mangues exportées est située au nord du pays. La production et la commercialisation de ce fruit est fortement compromise par diverses maladies d'origine fongiques dont l'anthracnose.
@@ -575,9 +591,11 @@
           <t>Principales formes d'anthracnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Source : OEPP[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Source : OEPP.
 anthracnose de la banane - Colletotrichum musae,
 anthracnose de l'airelle - Glomerella cingulata,
 anthracnose de la fève (et de la fèverole) -  Didymella fabae, Aschochyta fabae,
@@ -594,7 +612,7 @@
 anthracnose de l'épinard - Colletotrichum dematium f. spinaciae
 anthracnose de l'hévéa - Glomerella cingulata,
 anthracnose de l'oignon blanc - Colletotrichum circinans,
-anthracnose de l'olivier - Colletotrichum  acutatum, Colletotrichum gloeosporioides[3]
+anthracnose de l'olivier - Colletotrichum  acutatum, Colletotrichum gloeosporioides
 anthracnose de l'oranger - Elsinoe australis,
 anthracnose de l'orme - Stegophora ulmea,
 anthracnose d'entrepôt de la poire - Neofabraea alba,
